--- a/cle/uft.xlsx
+++ b/cle/uft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\#2. PODJOEL MEDIA\4. PROGRAMMING\#REAL PROJECTS\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013F57DD-682A-4DF3-9A3B-19CB43F080F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D25DF8C-26E9-405C-A322-C1319DF40EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2782" uniqueCount="2645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2800" uniqueCount="2662">
   <si>
     <t>AARON MAWULI GH</t>
   </si>
@@ -7966,6 +7966,57 @@
   </si>
   <si>
     <t xml:space="preserve">98839889 </t>
+  </si>
+  <si>
+    <t>90706017</t>
+  </si>
+  <si>
+    <t>FRANCOISE TG</t>
+  </si>
+  <si>
+    <t>91950412</t>
+  </si>
+  <si>
+    <t>DICKSON GOGO GH</t>
+  </si>
+  <si>
+    <t>0598011989</t>
+  </si>
+  <si>
+    <t>SIMON TETTEH GH</t>
+  </si>
+  <si>
+    <t>0248049518</t>
+  </si>
+  <si>
+    <t>KWAME AMADOLA GH</t>
+  </si>
+  <si>
+    <t>0538204692</t>
+  </si>
+  <si>
+    <t>FELIX DOTI GH</t>
+  </si>
+  <si>
+    <t>0244915322</t>
+  </si>
+  <si>
+    <t>MOHAMMED NAZIF SAEED HAFIZ GH</t>
+  </si>
+  <si>
+    <t>0577634954</t>
+  </si>
+  <si>
+    <t>ZAINAB IBRAHIM GH</t>
+  </si>
+  <si>
+    <t>0536063872</t>
+  </si>
+  <si>
+    <t>KAFUI DEDE KPODAR GH</t>
+  </si>
+  <si>
+    <t>0557404286</t>
   </si>
 </sst>
 </file>
@@ -8078,12 +8129,10 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8367,8 +8416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1588"/>
   <sheetViews>
-    <sheetView topLeftCell="A909" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView topLeftCell="A918" workbookViewId="0">
+      <selection activeCell="A937" sqref="A937"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -16445,7 +16494,7 @@
       </c>
     </row>
     <row r="899" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A899" s="16" t="s">
+      <c r="A899" s="10" t="s">
         <v>2451</v>
       </c>
       <c r="B899" s="2" t="s">
@@ -16685,11 +16734,67 @@
       </c>
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A929" s="17" t="s">
+      <c r="A929" s="19" t="s">
         <v>2615</v>
       </c>
       <c r="B929" s="2" t="s">
         <v>2616</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A930" s="1" t="s">
+        <v>2648</v>
+      </c>
+      <c r="B930" s="2" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A931" s="1" t="s">
+        <v>2650</v>
+      </c>
+      <c r="B931" s="2" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A932" s="1" t="s">
+        <v>2652</v>
+      </c>
+      <c r="B932" s="2" t="s">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A933" s="1" t="s">
+        <v>2654</v>
+      </c>
+      <c r="B933" s="2" t="s">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A934" s="1" t="s">
+        <v>2656</v>
+      </c>
+      <c r="B934" s="2" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A935" s="1" t="s">
+        <v>2658</v>
+      </c>
+      <c r="B935" s="2" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A936" s="16" t="s">
+        <v>2660</v>
+      </c>
+      <c r="B936" s="2" t="s">
+        <v>2661</v>
       </c>
     </row>
     <row r="954" spans="2:2" x14ac:dyDescent="0.3">
@@ -17160,8 +17265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C697"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A672" workbookViewId="0">
-      <selection activeCell="F690" sqref="F690"/>
+    <sheetView tabSelected="1" topLeftCell="A676" workbookViewId="0">
+      <selection activeCell="C693" sqref="C693"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -23308,7 +23413,7 @@
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A684" s="19" t="s">
+      <c r="A684" s="3" t="s">
         <v>2633</v>
       </c>
       <c r="B684" s="7" t="s">
@@ -23364,12 +23469,20 @@
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A691" s="3"/>
-      <c r="B691" s="7"/>
+      <c r="A691" s="3" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B691" s="7" t="s">
+        <v>2645</v>
+      </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A692" s="3"/>
-      <c r="B692" s="7"/>
+      <c r="A692" s="17" t="s">
+        <v>2646</v>
+      </c>
+      <c r="B692" s="7" t="s">
+        <v>2647</v>
+      </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A693" s="3"/>

--- a/cle/uft.xlsx
+++ b/cle/uft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\#2. PODJOEL MEDIA\4. PROGRAMMING\#REAL PROJECTS\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D25DF8C-26E9-405C-A322-C1319DF40EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52EF0AE-AAB7-447B-816B-5A8669325A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2800" uniqueCount="2662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2806" uniqueCount="2666">
   <si>
     <t>AARON MAWULI GH</t>
   </si>
@@ -8017,6 +8017,18 @@
   </si>
   <si>
     <t>0557404286</t>
+  </si>
+  <si>
+    <t>KOKOU GERMAIN TG</t>
+  </si>
+  <si>
+    <t>92604831</t>
+  </si>
+  <si>
+    <t>0275690072</t>
+  </si>
+  <si>
+    <t>0547464555</t>
   </si>
 </sst>
 </file>
@@ -8416,8 +8428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1588"/>
   <sheetViews>
-    <sheetView topLeftCell="A918" workbookViewId="0">
-      <selection activeCell="A937" sqref="A937"/>
+    <sheetView tabSelected="1" topLeftCell="A918" workbookViewId="0">
+      <selection activeCell="E927" sqref="E927"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -16734,7 +16746,7 @@
       </c>
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A929" s="19" t="s">
+      <c r="A929" s="1" t="s">
         <v>2615</v>
       </c>
       <c r="B929" s="2" t="s">
@@ -16790,11 +16802,27 @@
       </c>
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A936" s="16" t="s">
+      <c r="A936" s="19" t="s">
         <v>2660</v>
       </c>
       <c r="B936" s="2" t="s">
         <v>2661</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A937" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B937" s="2" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A938" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="B938" s="2" t="s">
+        <v>2665</v>
       </c>
     </row>
     <row r="954" spans="2:2" x14ac:dyDescent="0.3">
@@ -17265,8 +17293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C697"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A676" workbookViewId="0">
-      <selection activeCell="C693" sqref="C693"/>
+    <sheetView topLeftCell="A676" workbookViewId="0">
+      <selection activeCell="A698" sqref="A698"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -23453,7 +23481,7 @@
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A689" s="18" t="s">
+      <c r="A689" s="3" t="s">
         <v>2641</v>
       </c>
       <c r="B689" s="7" t="s">
@@ -23477,7 +23505,7 @@
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A692" s="17" t="s">
+      <c r="A692" s="18" t="s">
         <v>2646</v>
       </c>
       <c r="B692" s="7" t="s">
@@ -23485,8 +23513,12 @@
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A693" s="3"/>
-      <c r="B693" s="7"/>
+      <c r="A693" s="17" t="s">
+        <v>2662</v>
+      </c>
+      <c r="B693" s="7" t="s">
+        <v>2663</v>
+      </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A695" s="3"/>

--- a/cle/uft.xlsx
+++ b/cle/uft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\#2. PODJOEL MEDIA\4. PROGRAMMING\#REAL PROJECTS\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52EF0AE-AAB7-447B-816B-5A8669325A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B7EADB-A885-4C0C-A9DA-95C4E7AB7453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2806" uniqueCount="2666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2812" uniqueCount="2670">
   <si>
     <t>AARON MAWULI GH</t>
   </si>
@@ -8029,6 +8029,18 @@
   </si>
   <si>
     <t>0547464555</t>
+  </si>
+  <si>
+    <t>0533572185</t>
+  </si>
+  <si>
+    <t>0256031110</t>
+  </si>
+  <si>
+    <t>AGBENOWOSSI KOSSI TG</t>
+  </si>
+  <si>
+    <t>98211929</t>
   </si>
 </sst>
 </file>
@@ -8104,7 +8116,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -8143,8 +8155,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8428,8 +8438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1588"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A918" workbookViewId="0">
-      <selection activeCell="E927" sqref="E927"/>
+    <sheetView topLeftCell="A918" workbookViewId="0">
+      <selection activeCell="B942" sqref="B942"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -16802,7 +16812,7 @@
       </c>
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A936" s="19" t="s">
+      <c r="A936" s="1" t="s">
         <v>2660</v>
       </c>
       <c r="B936" s="2" t="s">
@@ -16823,6 +16833,22 @@
       </c>
       <c r="B938" s="2" t="s">
         <v>2665</v>
+      </c>
+    </row>
+    <row r="939" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A939" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B939" s="2" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A940" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="B940" s="2" t="s">
+        <v>2667</v>
       </c>
     </row>
     <row r="954" spans="2:2" x14ac:dyDescent="0.3">
@@ -17293,8 +17319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C697"/>
   <sheetViews>
-    <sheetView topLeftCell="A676" workbookViewId="0">
-      <selection activeCell="A698" sqref="A698"/>
+    <sheetView tabSelected="1" topLeftCell="A676" workbookViewId="0">
+      <selection activeCell="B696" sqref="B696"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -23505,7 +23531,7 @@
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A692" s="18" t="s">
+      <c r="A692" s="3" t="s">
         <v>2646</v>
       </c>
       <c r="B692" s="7" t="s">
@@ -23518,6 +23544,14 @@
       </c>
       <c r="B693" s="7" t="s">
         <v>2663</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A694" s="1" t="s">
+        <v>2668</v>
+      </c>
+      <c r="B694" s="2" t="s">
+        <v>2669</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.3">

--- a/cle/uft.xlsx
+++ b/cle/uft.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\#2. PODJOEL MEDIA\4. PROGRAMMING\#REAL PROJECTS\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B7EADB-A885-4C0C-A9DA-95C4E7AB7453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE020669-F29D-40EC-8D31-709BD848434E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2812" uniqueCount="2670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2837" uniqueCount="2695">
   <si>
     <t>AARON MAWULI GH</t>
   </si>
@@ -8041,6 +8041,81 @@
   </si>
   <si>
     <t>98211929</t>
+  </si>
+  <si>
+    <t>VIDA FRIMPONG GH</t>
+  </si>
+  <si>
+    <t>0248760033</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ELIAS OPON BALOGOUN BN</t>
+  </si>
+  <si>
+    <t>56057616</t>
+  </si>
+  <si>
+    <t>KOKOU NOEL TG</t>
+  </si>
+  <si>
+    <t>7108 0576</t>
+  </si>
+  <si>
+    <t>PISSANG TIMOTE TG</t>
+  </si>
+  <si>
+    <t>AYITE MAWULE TG</t>
+  </si>
+  <si>
+    <t>KOAMIVI C TG</t>
+  </si>
+  <si>
+    <t>DOGBAN ATSOU TG</t>
+  </si>
+  <si>
+    <t>ABLA DJIGBODI TG</t>
+  </si>
+  <si>
+    <t>NEYI SAX TG</t>
+  </si>
+  <si>
+    <t>AKOELEVI TG</t>
+  </si>
+  <si>
+    <t>AFFI TG</t>
+  </si>
+  <si>
+    <t>BIDIMA BOUKARE TG</t>
+  </si>
+  <si>
+    <t>SOLOMON KWESI ANSARE GH</t>
+  </si>
+  <si>
+    <t>KELVEN DOGBAN GH</t>
+  </si>
+  <si>
+    <t>GODSWAY KORTORKU GH</t>
+  </si>
+  <si>
+    <t>KOSI PAPA GBENU GH</t>
+  </si>
+  <si>
+    <t>KWASI MICHEAL AMUZU GH</t>
+  </si>
+  <si>
+    <t>0243990472</t>
+  </si>
+  <si>
+    <t>0244564110</t>
+  </si>
+  <si>
+    <t>0536906973</t>
+  </si>
+  <si>
+    <t>0242367364</t>
+  </si>
+  <si>
+    <t>0246739391</t>
   </si>
 </sst>
 </file>
@@ -8438,8 +8513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1588"/>
   <sheetViews>
-    <sheetView topLeftCell="A918" workbookViewId="0">
-      <selection activeCell="B942" sqref="B942"/>
+    <sheetView tabSelected="1" topLeftCell="A921" workbookViewId="0">
+      <selection activeCell="D946" sqref="D946"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -16851,7 +16926,55 @@
         <v>2667</v>
       </c>
     </row>
-    <row r="954" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A941" s="1" t="s">
+        <v>2670</v>
+      </c>
+      <c r="B941" s="2" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A942" s="10" t="s">
+        <v>2685</v>
+      </c>
+      <c r="B942" s="2" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A943" s="10" t="s">
+        <v>2686</v>
+      </c>
+      <c r="B943" s="2" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A944" s="10" t="s">
+        <v>2687</v>
+      </c>
+      <c r="B944" s="2" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A945" s="10" t="s">
+        <v>2688</v>
+      </c>
+      <c r="B945" s="2" t="s">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A946" s="10" t="s">
+        <v>2689</v>
+      </c>
+      <c r="B946" s="2" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="954" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B954" s="6"/>
     </row>
     <row r="1381" spans="2:2" x14ac:dyDescent="0.3">
@@ -17317,10 +17440,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C697"/>
+  <dimension ref="A1:C704"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A676" workbookViewId="0">
-      <selection activeCell="B696" sqref="B696"/>
+    <sheetView topLeftCell="A685" workbookViewId="0">
+      <selection activeCell="C703" sqref="C703"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -23555,12 +23678,84 @@
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A695" s="3"/>
-      <c r="B695" s="8"/>
+      <c r="A695" s="10" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B695" s="8" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A696" s="10" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B696" s="2">
+        <v>96196611</v>
+      </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A697" s="3"/>
-      <c r="B697" s="8"/>
+      <c r="A697" s="10" t="s">
+        <v>2677</v>
+      </c>
+      <c r="B697" s="8">
+        <v>90328151</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A698" s="10" t="s">
+        <v>2678</v>
+      </c>
+      <c r="B698" s="2">
+        <v>93362246</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A699" s="10" t="s">
+        <v>2679</v>
+      </c>
+      <c r="B699" s="2">
+        <v>99667282</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A700" s="10" t="s">
+        <v>2680</v>
+      </c>
+      <c r="B700" s="2">
+        <v>90130676</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A701" s="10" t="s">
+        <v>2681</v>
+      </c>
+      <c r="B701" s="2">
+        <v>91291129</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A702" s="10" t="s">
+        <v>2682</v>
+      </c>
+      <c r="B702" s="2">
+        <v>90558405</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A703" s="1" t="s">
+        <v>2683</v>
+      </c>
+      <c r="B703" s="2">
+        <v>90271122</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A704" s="1" t="s">
+        <v>2684</v>
+      </c>
+      <c r="B704" s="2">
+        <v>96101703</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23570,10 +23765,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -24290,6 +24485,14 @@
       </c>
       <c r="B80" s="2" t="s">
         <v>2620</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>2672</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>2673</v>
       </c>
     </row>
   </sheetData>
